--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2541437.097140166</v>
+        <v>2539515.463140411</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>221.2006630000038</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>84.99145734206415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.49655679911334</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.32531763251863</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>21.57990476584689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>346.6395628336973</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>178.5971044220066</v>
       </c>
       <c r="F5" t="n">
-        <v>346.639562833697</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>346.639562833697</v>
+        <v>14.91803361253456</v>
       </c>
       <c r="H5" t="n">
-        <v>72.89255471185376</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.2536294057366</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.3148765956284</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>346.6395628336973</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.37802494748621</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>167.8598811925748</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3350702701579</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>200.3972835209711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>144.3820934126227</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.71208379014163</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>34.27395349703487</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.4199999337461</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2772323673055</v>
+        <v>241.9284108258521</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>174.0382101334481</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.1537278750037</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>117.1501684881977</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>206.8064269214864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>200.5701849660526</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15.98360398438659</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>12.68762643336711</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.76092058086076</v>
+        <v>166.031166024798</v>
       </c>
       <c r="C22" t="n">
-        <v>153.4460069414886</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>134.8146588610731</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>132.6331484894299</v>
@@ -2254,10 +2254,10 @@
         <v>152.6927543062383</v>
       </c>
       <c r="H22" t="n">
-        <v>135.1130142103969</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.61843130713272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.119995826464</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.74674690125</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.4365382414381</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>238.3368291666887</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.2305886251389</v>
       </c>
       <c r="X22" t="n">
-        <v>211.9088412318979</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>204.7838391949555</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.6204754027472</v>
+        <v>134.8146588610731</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>132.6331484894299</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>131.620233865792</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>184.119995826464</v>
       </c>
       <c r="T25" t="n">
-        <v>207.74674690125</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>272.4365382414381</v>
+        <v>196.8607213660821</v>
       </c>
       <c r="V25" t="n">
         <v>238.3368291666887</v>
@@ -2539,10 +2539,10 @@
         <v>272.7221841794517</v>
       </c>
       <c r="X25" t="n">
-        <v>211.9088412318979</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>204.7838391949555</v>
       </c>
     </row>
     <row r="26">
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>80.39528214058967</v>
       </c>
       <c r="F28" t="n">
-        <v>108.6204754027474</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>96.16353824665353</v>
       </c>
       <c r="S28" t="n">
         <v>184.119995826464</v>
@@ -2773,13 +2773,13 @@
         <v>238.3368291666887</v>
       </c>
       <c r="W28" t="n">
-        <v>272.7221841794517</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>211.9088412318979</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.7838391949555</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>166.031166024798</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.6331484894299</v>
       </c>
       <c r="F31" t="n">
-        <v>131.6202338657919</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.6927543062383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.1130142103968</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.61843130713268</v>
+        <v>96.61843130713274</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>96.16353824665353</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.119995826464</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>272.436538241438</v>
+        <v>272.4365382414381</v>
       </c>
       <c r="V31" t="n">
-        <v>238.3368291666887</v>
+        <v>63.25776740267145</v>
       </c>
       <c r="W31" t="n">
         <v>272.7221841794517</v>
       </c>
       <c r="X31" t="n">
-        <v>196.3516256727998</v>
+        <v>211.9088412318979</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088615</v>
       </c>
       <c r="U35" t="n">
         <v>182.9467051201603</v>
@@ -3326,10 +3326,10 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
-        <v>301.5992105488261</v>
+        <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
         <v>318.1060485264129</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.6472449230983</v>
+        <v>13.64724492310008</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555816</v>
       </c>
       <c r="T38" t="n">
         <v>140.3508982088612</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310008</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555816</v>
+        <v>64.81847467555784</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338394</v>
       </c>
       <c r="C44" t="n">
         <v>297.1410016413669</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555558</v>
+        <v>64.81847467555825</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463045</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.7341079359765</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="C2" t="n">
-        <v>267.7881344992538</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793682</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>594.0077667144363</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4343,7 +4343,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4358,22 +4358,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6800813726991</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726991</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726991</v>
+        <v>600.9532674636398</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.7989188188669</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="C3" t="n">
-        <v>346.3458895377399</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="D3" t="n">
-        <v>197.4114798764887</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618843</v>
@@ -4410,22 +4410,22 @@
         <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>45.18387750277338</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L3" t="n">
-        <v>291.3393440954744</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>301.7940899785172</v>
       </c>
       <c r="N3" t="n">
-        <v>838.129241226138</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4440,19 +4440,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W3" t="n">
-        <v>1104.626054809422</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X3" t="n">
-        <v>896.7745546038889</v>
+        <v>368.5075556325962</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.014255838935</v>
+        <v>160.7472568676422</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>177.1948334012702</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>177.1948334012702</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>177.1948334012702</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
         <v>22.09252109618843</v>
@@ -4516,22 +4516,22 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>801.6419532885621</v>
+        <v>580.287474733716</v>
       </c>
       <c r="C5" t="n">
-        <v>801.6419532885621</v>
+        <v>580.287474733716</v>
       </c>
       <c r="D5" t="n">
-        <v>801.6419532885621</v>
+        <v>230.1465021744257</v>
       </c>
       <c r="E5" t="n">
-        <v>801.6419532885621</v>
+        <v>49.74538659664124</v>
       </c>
       <c r="F5" t="n">
-        <v>451.5009807292723</v>
+        <v>42.79988584743776</v>
       </c>
       <c r="G5" t="n">
-        <v>101.3600081699824</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="H5" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="I5" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="J5" t="n">
-        <v>48.22611879043458</v>
+        <v>48.22611879043461</v>
       </c>
       <c r="K5" t="n">
-        <v>199.6875459612702</v>
+        <v>199.6875459612704</v>
       </c>
       <c r="L5" t="n">
-        <v>439.8654670444599</v>
+        <v>439.8654670444602</v>
       </c>
       <c r="M5" t="n">
-        <v>723.7162270534877</v>
+        <v>723.7162270534884</v>
       </c>
       <c r="N5" t="n">
-        <v>997.5279915704818</v>
+        <v>997.5279915704828</v>
       </c>
       <c r="O5" t="n">
-        <v>1210.893038585716</v>
+        <v>1210.893038585717</v>
       </c>
       <c r="P5" t="n">
-        <v>1355.320786930858</v>
+        <v>1355.320786930859</v>
       </c>
       <c r="Q5" t="n">
-        <v>1386.558251334788</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="R5" t="n">
-        <v>1386.558251334788</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="S5" t="n">
-        <v>1386.558251334788</v>
+        <v>1184.281857995661</v>
       </c>
       <c r="T5" t="n">
-        <v>1386.558251334788</v>
+        <v>1184.281857995661</v>
       </c>
       <c r="U5" t="n">
-        <v>1132.704840632133</v>
+        <v>930.4284472930062</v>
       </c>
       <c r="V5" t="n">
-        <v>801.6419532885621</v>
+        <v>930.4284472930062</v>
       </c>
       <c r="W5" t="n">
-        <v>801.6419532885621</v>
+        <v>580.287474733716</v>
       </c>
       <c r="X5" t="n">
-        <v>801.6419532885621</v>
+        <v>580.287474733716</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.6419532885621</v>
+        <v>580.287474733716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656.8906169476445</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="C6" t="n">
-        <v>482.4375876665175</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="D6" t="n">
-        <v>333.5031780052662</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="E6" t="n">
-        <v>174.2657229998108</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="F6" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="G6" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="H6" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="I6" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="J6" t="n">
-        <v>27.73116502669576</v>
+        <v>46.24443940088631</v>
       </c>
       <c r="K6" t="n">
-        <v>185.9941427979549</v>
+        <v>204.5074171721456</v>
       </c>
       <c r="L6" t="n">
-        <v>460.2026435627633</v>
+        <v>478.7159179369542</v>
       </c>
       <c r="M6" t="n">
-        <v>460.2026435627633</v>
+        <v>524.5922538410584</v>
       </c>
       <c r="N6" t="n">
-        <v>772.3589854890213</v>
+        <v>867.7654210464189</v>
       </c>
       <c r="O6" t="n">
-        <v>1069.595985815751</v>
+        <v>1165.002421373149</v>
       </c>
       <c r="P6" t="n">
-        <v>1291.151815777391</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="Q6" t="n">
-        <v>1386.558251334788</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="R6" t="n">
-        <v>1386.558251334788</v>
+        <v>1298.297620074702</v>
       </c>
       <c r="S6" t="n">
-        <v>1386.558251334788</v>
+        <v>1128.742184526647</v>
       </c>
       <c r="T6" t="n">
-        <v>1386.558251334788</v>
+        <v>927.3936286982043</v>
       </c>
       <c r="U6" t="n">
-        <v>1386.558251334788</v>
+        <v>724.9721301921729</v>
       </c>
       <c r="V6" t="n">
-        <v>1386.558251334788</v>
+        <v>489.8200219604303</v>
       </c>
       <c r="W6" t="n">
-        <v>1240.717752938199</v>
+        <v>235.5826652322286</v>
       </c>
       <c r="X6" t="n">
-        <v>1032.866252732666</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="Y6" t="n">
-        <v>825.1059539677126</v>
+        <v>27.73116502669578</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="C7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="D7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="E7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="F7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="G7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="H7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="I7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="J7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="K7" t="n">
-        <v>27.73116502669576</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="L7" t="n">
-        <v>80.44443135064927</v>
+        <v>80.44443135064937</v>
       </c>
       <c r="M7" t="n">
-        <v>146.4123028384527</v>
+        <v>146.4123028384529</v>
       </c>
       <c r="N7" t="n">
-        <v>216.2462222095718</v>
+        <v>216.2462222095721</v>
       </c>
       <c r="O7" t="n">
-        <v>264.7328541816918</v>
+        <v>264.7328541816922</v>
       </c>
       <c r="P7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294696</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.2644136565988</v>
+        <v>282.7008619294696</v>
       </c>
       <c r="R7" t="n">
-        <v>210.2644136565988</v>
+        <v>282.7008619294696</v>
       </c>
       <c r="S7" t="n">
-        <v>210.2644136565988</v>
+        <v>282.7008619294696</v>
       </c>
       <c r="T7" t="n">
-        <v>175.6442586090889</v>
+        <v>282.7008619294696</v>
       </c>
       <c r="U7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="V7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="W7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="X7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.6442586090889</v>
+        <v>27.73116502669578</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>571.9594663958189</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="D8" t="n">
-        <v>213.6937677890684</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="E8" t="n">
-        <v>213.6937677890684</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="F8" t="n">
-        <v>206.748267039865</v>
+        <v>778.9758099365973</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,61 +5030,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.814757496977</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683722</v>
+        <v>237.7764125461482</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>237.7764125461482</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>237.7764125461482</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557903</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="W13" t="n">
-        <v>955.103143565574</v>
+        <v>465.7659634441655</v>
       </c>
       <c r="X13" t="n">
-        <v>836.769640042142</v>
+        <v>237.7764125461482</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>237.7764125461482</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,16 +5273,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V16" t="n">
-        <v>835.4163915387937</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018332</v>
+        <v>709.451253618899</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>481.4617027208817</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5522,34 +5522,34 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.2520934878795</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>260.2520934878795</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>260.2520934878795</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609666</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550798</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181192</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181192</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181192</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>910.669630971154</v>
+        <v>385.425074082173</v>
       </c>
       <c r="C22" t="n">
-        <v>755.6736643635898</v>
+        <v>385.425074082173</v>
       </c>
       <c r="D22" t="n">
-        <v>619.4972412715967</v>
+        <v>385.425074082173</v>
       </c>
       <c r="E22" t="n">
-        <v>485.5243640095463</v>
+        <v>251.4521968201225</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5243640095463</v>
+        <v>251.4521968201225</v>
       </c>
       <c r="G22" t="n">
-        <v>331.2892586497096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>194.8114665179957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>123.2625899397636</v>
@@ -5935,25 +5935,25 @@
         <v>1608.218718682445</v>
       </c>
       <c r="S22" t="n">
-        <v>1422.23892491834</v>
+        <v>1608.218718682445</v>
       </c>
       <c r="T22" t="n">
-        <v>1422.23892491834</v>
+        <v>1398.373519792294</v>
       </c>
       <c r="U22" t="n">
-        <v>1422.23892491834</v>
+        <v>1123.185097326195</v>
       </c>
       <c r="V22" t="n">
-        <v>1422.23892491834</v>
+        <v>882.4408254406504</v>
       </c>
       <c r="W22" t="n">
-        <v>1422.23892491834</v>
+        <v>759.9856854152574</v>
       </c>
       <c r="X22" t="n">
-        <v>1208.189590340666</v>
+        <v>759.9856854152574</v>
       </c>
       <c r="Y22" t="n">
-        <v>1001.337227517478</v>
+        <v>553.13332259207</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6014,10 +6014,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.9347433822529</v>
+        <v>500.3161229918971</v>
       </c>
       <c r="C25" t="n">
-        <v>206.9347433822529</v>
+        <v>500.3161229918971</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>364.139699899904</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>230.1668226378536</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>123.2625899397636</v>
@@ -6175,22 +6175,22 @@
         <v>1422.23892491834</v>
       </c>
       <c r="T25" t="n">
-        <v>1212.393726028189</v>
+        <v>1422.23892491834</v>
       </c>
       <c r="U25" t="n">
-        <v>937.2053035620896</v>
+        <v>1223.389711417247</v>
       </c>
       <c r="V25" t="n">
-        <v>696.4610316765454</v>
+        <v>982.6454395317024</v>
       </c>
       <c r="W25" t="n">
-        <v>420.9840779599275</v>
+        <v>707.1684858150845</v>
       </c>
       <c r="X25" t="n">
-        <v>206.9347433822529</v>
+        <v>707.1684858150845</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.9347433822529</v>
+        <v>500.3161229918971</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>206.934743382253</v>
+        <v>178.4244471578512</v>
       </c>
       <c r="C28" t="n">
-        <v>206.934743382253</v>
+        <v>178.4244471578512</v>
       </c>
       <c r="D28" t="n">
-        <v>206.934743382253</v>
+        <v>178.4244471578512</v>
       </c>
       <c r="E28" t="n">
-        <v>206.934743382253</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>123.2625899397636</v>
+        <v>123.2625899397634</v>
       </c>
       <c r="K28" t="n">
-        <v>287.1108001999429</v>
+        <v>287.1108001999428</v>
       </c>
       <c r="L28" t="n">
-        <v>548.4856512266401</v>
+        <v>548.4856512266397</v>
       </c>
       <c r="M28" t="n">
-        <v>833.7152000093909</v>
+        <v>833.7152000093903</v>
       </c>
       <c r="N28" t="n">
         <v>1117.922115052506</v>
@@ -6400,34 +6400,34 @@
         <v>1365.459899073471</v>
       </c>
       <c r="P28" t="n">
-        <v>1555.722469694722</v>
+        <v>1555.722469694721</v>
       </c>
       <c r="Q28" t="n">
-        <v>1608.218718682446</v>
+        <v>1608.218718682445</v>
       </c>
       <c r="R28" t="n">
-        <v>1608.218718682446</v>
+        <v>1511.083831564614</v>
       </c>
       <c r="S28" t="n">
-        <v>1422.23892491834</v>
+        <v>1325.104037800508</v>
       </c>
       <c r="T28" t="n">
-        <v>1212.393726028189</v>
+        <v>1115.258838910357</v>
       </c>
       <c r="U28" t="n">
-        <v>937.2053035620897</v>
+        <v>840.0704164442575</v>
       </c>
       <c r="V28" t="n">
-        <v>696.4610316765455</v>
+        <v>599.3261445587133</v>
       </c>
       <c r="W28" t="n">
-        <v>420.9840779599276</v>
+        <v>599.3261445587133</v>
       </c>
       <c r="X28" t="n">
-        <v>206.934743382253</v>
+        <v>385.2768099810386</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.934743382253</v>
+        <v>178.4244471578512</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6546,22 +6546,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>618.4740951871139</v>
+        <v>328.7843437800461</v>
       </c>
       <c r="C31" t="n">
-        <v>618.4740951871139</v>
+        <v>328.7843437800461</v>
       </c>
       <c r="D31" t="n">
-        <v>618.4740951871139</v>
+        <v>328.7843437800461</v>
       </c>
       <c r="E31" t="n">
-        <v>618.4740951871139</v>
+        <v>194.8114665179957</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5243640095463</v>
+        <v>194.8114665179957</v>
       </c>
       <c r="G31" t="n">
-        <v>331.2892586497096</v>
+        <v>194.8114665179957</v>
       </c>
       <c r="H31" t="n">
-        <v>194.8114665179956</v>
+        <v>194.8114665179957</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,49 +6622,49 @@
         <v>123.2625899397636</v>
       </c>
       <c r="K31" t="n">
-        <v>287.110800199943</v>
+        <v>287.1108001999428</v>
       </c>
       <c r="L31" t="n">
-        <v>548.4856512266401</v>
+        <v>548.4856512266399</v>
       </c>
       <c r="M31" t="n">
-        <v>833.715200009391</v>
+        <v>833.7152000093906</v>
       </c>
       <c r="N31" t="n">
-        <v>1117.922115052507</v>
+        <v>1117.922115052506</v>
       </c>
       <c r="O31" t="n">
         <v>1365.459899073471</v>
       </c>
       <c r="P31" t="n">
-        <v>1555.722469694722</v>
+        <v>1555.722469694721</v>
       </c>
       <c r="Q31" t="n">
         <v>1608.218718682445</v>
       </c>
       <c r="R31" t="n">
-        <v>1608.218718682445</v>
+        <v>1511.083831564613</v>
       </c>
       <c r="S31" t="n">
-        <v>1608.218718682445</v>
+        <v>1325.104037800508</v>
       </c>
       <c r="T31" t="n">
-        <v>1608.218718682445</v>
+        <v>1325.104037800508</v>
       </c>
       <c r="U31" t="n">
-        <v>1333.030296216346</v>
+        <v>1049.915615334409</v>
       </c>
       <c r="V31" t="n">
-        <v>1092.286024330802</v>
+        <v>986.0188805842357</v>
       </c>
       <c r="W31" t="n">
-        <v>816.8090706141844</v>
+        <v>710.5419268676178</v>
       </c>
       <c r="X31" t="n">
-        <v>618.4740951871139</v>
+        <v>496.4925922899432</v>
       </c>
       <c r="Y31" t="n">
-        <v>618.4740951871139</v>
+        <v>496.4925922899432</v>
       </c>
     </row>
     <row r="32">
@@ -6701,10 +6701,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6923,64 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872898</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H35" t="n">
         <v>89.93481253402928</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K35" t="n">
-        <v>547.3128584977794</v>
+        <v>645.8810859605991</v>
       </c>
       <c r="L35" t="n">
-        <v>1248.917014541577</v>
+        <v>1347.485242004397</v>
       </c>
       <c r="M35" t="n">
-        <v>1601.174970103564</v>
+        <v>2144.761595724288</v>
       </c>
       <c r="N35" t="n">
-        <v>2396.720091207595</v>
+        <v>2507.333261660454</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040993</v>
+        <v>2836.364143234532</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296796</v>
+        <v>3401.264108490335</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.44939017663</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643028</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
         <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F36" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G36" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H36" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174677</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L36" t="n">
-        <v>1267.258257405874</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M36" t="n">
-        <v>1574.578390685836</v>
+        <v>1082.616323848406</v>
       </c>
       <c r="N36" t="n">
-        <v>1904.441018349868</v>
+        <v>1887.027902112557</v>
       </c>
       <c r="O36" t="n">
-        <v>2183.981083568565</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.003564350775</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026577</v>
+        <v>638.3928643026571</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147918</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424971</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001451</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422758</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021375</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901216</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443642</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.61895581732</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567937</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N37" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P37" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q37" t="n">
         <v>2017.453465576481</v>
@@ -7123,22 +7123,22 @@
         <v>1844.098534133941</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
         <v>1282.960265051241</v>
       </c>
       <c r="W37" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963453</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928563</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561767</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995057</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436854</v>
+        <v>1018.957177436857</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872879</v>
+        <v>676.7913636872904</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922871</v>
+        <v>329.4856801922896</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402746</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>190.5044460993558</v>
       </c>
       <c r="K38" t="n">
-        <v>658.7417063967499</v>
+        <v>713.9073046683856</v>
       </c>
       <c r="L38" t="n">
-        <v>1360.345862440548</v>
+        <v>1415.511460712184</v>
       </c>
       <c r="M38" t="n">
-        <v>1712.603818002534</v>
+        <v>1767.76941627417</v>
       </c>
       <c r="N38" t="n">
-        <v>2508.148939106565</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O38" t="n">
-        <v>3214.172000130761</v>
+        <v>2836.364143234532</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296796</v>
+        <v>3401.264108490335</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643028</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486218</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F39" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G39" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H39" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J39" t="n">
-        <v>117.6407938174676</v>
+        <v>117.6407938174677</v>
       </c>
       <c r="K39" t="n">
         <v>528.5310626619803</v>
       </c>
       <c r="L39" t="n">
-        <v>932.5799080533382</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M39" t="n">
-        <v>1700.9480544458</v>
+        <v>1177.693398633771</v>
       </c>
       <c r="N39" t="n">
-        <v>2030.810682109832</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O39" t="n">
-        <v>2310.350747328529</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026564</v>
+        <v>638.3928643026577</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147906</v>
+        <v>538.2767724147918</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424959</v>
+        <v>456.9802240424972</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001439</v>
+        <v>377.8872215001452</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422747</v>
+        <v>299.8173650422757</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021364</v>
+        <v>200.4621344021374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J40" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443642</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7351,31 +7351,31 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.36318605432</v>
+        <v>1062.363186054322</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963441</v>
+        <v>903.1937261963453</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928551</v>
+        <v>751.2212380928563</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872887</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922879</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402925</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977794</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4324121366317</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.708765856522</v>
+        <v>1863.568522949379</v>
       </c>
       <c r="N41" t="n">
-        <v>2428.253886960553</v>
+        <v>2659.11364405341</v>
       </c>
       <c r="O41" t="n">
-        <v>2895.591279040993</v>
+        <v>3365.136705077606</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296796</v>
+        <v>3611.455949243641</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799038</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F42" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G42" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H42" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J42" t="n">
-        <v>117.6407938174676</v>
+        <v>117.6407938174677</v>
       </c>
       <c r="K42" t="n">
-        <v>266.7104780195274</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L42" t="n">
-        <v>688.4260841283381</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M42" t="n">
-        <v>995.7462174082998</v>
+        <v>1281.843752318453</v>
       </c>
       <c r="N42" t="n">
-        <v>1325.608845072333</v>
+        <v>1611.706379982486</v>
       </c>
       <c r="O42" t="n">
-        <v>1995.072606374992</v>
+        <v>1891.246445201183</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q42" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026568</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147909</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E43" t="n">
         <v>377.8872215001443</v>
@@ -7558,13 +7558,13 @@
         <v>299.817365042275</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021367</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901209</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J43" t="n">
         <v>155.9829803443641</v>
@@ -7573,7 +7573,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7594,25 +7594,25 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.098534133939</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
         <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963444</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7640,43 @@
         <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J44" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432325</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.82097298703</v>
+        <v>1248.917014541578</v>
       </c>
       <c r="M44" t="n">
-        <v>2089.595997452652</v>
+        <v>1604.214937666075</v>
       </c>
       <c r="N44" t="n">
-        <v>2885.141118556683</v>
+        <v>2399.760058770105</v>
       </c>
       <c r="O44" t="n">
-        <v>3214.172000130761</v>
+        <v>3105.783119794301</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296796</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U44" t="n">
         <v>3415.449390176633</v>
@@ -7691,7 +7691,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F45" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G45" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H45" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6407938174676</v>
+        <v>117.6407938174677</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195274</v>
+        <v>464.3373278007654</v>
       </c>
       <c r="L45" t="n">
-        <v>513.4756059259915</v>
+        <v>711.1024557072294</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.399103845682</v>
+        <v>1018.422588987191</v>
       </c>
       <c r="N45" t="n">
-        <v>2030.810682109832</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O45" t="n">
-        <v>2310.350747328529</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026563</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147905</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424957</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001436</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422743</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021359</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901206</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J46" t="n">
         <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173195</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7828,28 +7828,28 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R46" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963442</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928561</v>
+        <v>751.2212380928551</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>142.6317767593719</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>374.9186269287976</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>107.3907581947619</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>89.98020672634777</v>
+        <v>136.3199399628166</v>
       </c>
       <c r="N6" t="n">
-        <v>393.1169645594991</v>
+        <v>424.4470911040468</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>113.7071508091858</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>134.4977453535105</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>5.100663089359614</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>134.4977453535105</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>94.13752431970596</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943616</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>268.660481296134</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>171.5558649084046</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>13.22842095505655</v>
       </c>
       <c r="K38" t="n">
-        <v>112.5543918171419</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>109.9951953744599</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>139.7035459660221</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>169.2091605087226</v>
+        <v>3.070674305566229</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>5.891030169484338</v>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>7.280234771565444</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>108.5594869008395</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.74113413690282</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>18.01446838604221</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>130.4503586621826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>185.2331835502361</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.27024544393728</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>153.4460069414886</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>134.8146588610731</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.1130142103969</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.61843130713274</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>96.16353824665353</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.119995826464</v>
       </c>
       <c r="T22" t="n">
-        <v>207.74674690125</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>272.4365382414381</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>238.3368291666887</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.7221841794517</v>
+        <v>151.4915955543128</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>211.9088412318979</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>153.4460069414886</v>
       </c>
       <c r="D25" t="n">
-        <v>26.19418345832586</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>132.6331484894299</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>131.620233865792</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>152.6927543062383</v>
@@ -24382,7 +24382,7 @@
         <v>135.1130142103969</v>
       </c>
       <c r="I25" t="n">
-        <v>96.61843130713272</v>
+        <v>96.61843130713274</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.74674690125</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>75.575816875356</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9088412318979</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.7838391949555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24607,10 @@
         <v>134.8146588610731</v>
       </c>
       <c r="E28" t="n">
-        <v>132.6331484894299</v>
+        <v>52.23786634884024</v>
       </c>
       <c r="F28" t="n">
-        <v>22.99975846304461</v>
+        <v>131.620233865792</v>
       </c>
       <c r="G28" t="n">
         <v>152.6927543062383</v>
@@ -24619,7 +24619,7 @@
         <v>135.1130142103969</v>
       </c>
       <c r="I28" t="n">
-        <v>96.61843130713272</v>
+        <v>96.61843130713274</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>96.16353824665353</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.7221841794517</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.7838391949555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.031166024798</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153.4460069414885</v>
+        <v>153.4460069414886</v>
       </c>
       <c r="D31" t="n">
-        <v>134.814658861073</v>
+        <v>134.8146588610731</v>
       </c>
       <c r="E31" t="n">
-        <v>132.6331484894299</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>131.620233865792</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.6927543062383</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.1130142103969</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>96.16353824665349</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.1199958264639</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.7467469012499</v>
+        <v>207.74674690125</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>175.0790617640173</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.55721555909805</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>204.7838391949555</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.166001291305292e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>805280.2942811223</v>
+        <v>805280.2942811222</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>805280.2942811222</v>
+        <v>805280.2942811223</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812979.4196148084</v>
+        <v>812979.4196148085</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812979.4196148085</v>
+        <v>812979.4196148086</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448189</v>
+        <v>636307.371644819</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="H2" t="n">
-        <v>612214.860166379</v>
+        <v>612214.8601663793</v>
       </c>
       <c r="I2" t="n">
         <v>612214.8601663793</v>
       </c>
       <c r="J2" t="n">
-        <v>612214.860166379</v>
+        <v>612214.8601663789</v>
       </c>
       <c r="K2" t="n">
-        <v>612214.8601663789</v>
+        <v>612214.8601663788</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448189</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.371644819</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448189</v>
+        <v>636307.3716448193</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>78020.722580936</v>
+        <v>78020.72258093639</v>
       </c>
       <c r="D3" t="n">
-        <v>343327.5508291559</v>
+        <v>343327.5508291555</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11040.65132571141</v>
+        <v>11040.6513257114</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>18140.08138883509</v>
+        <v>18140.08138883514</v>
       </c>
       <c r="L3" t="n">
         <v>126389.5473295811</v>
       </c>
       <c r="M3" t="n">
-        <v>80215.7406633404</v>
+        <v>80215.74066334046</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>294843.9996963376</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="F4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="F4" t="n">
-        <v>43561.42148316553</v>
-      </c>
       <c r="G4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>48102.57711171467</v>
+        <v>48102.57711171469</v>
       </c>
       <c r="I4" t="n">
         <v>48102.57711171468</v>
@@ -26442,22 +26442,22 @@
         <v>48102.57711171469</v>
       </c>
       <c r="K4" t="n">
-        <v>48102.57711171469</v>
+        <v>48102.57711171468</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448604</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766791</v>
+        <v>99837.12979766783</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766789</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="O4" t="n">
         <v>99837.1297976678</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766791</v>
+        <v>99837.12979766782</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56789.43850811559</v>
+        <v>56789.43850811562</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581177</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581177</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581173</v>
+        <v>81703.90096581176</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>141905.6822443141</v>
       </c>
       <c r="C6" t="n">
-        <v>206653.2108594297</v>
+        <v>206653.2108594295</v>
       </c>
       <c r="D6" t="n">
-        <v>17914.14635982452</v>
+        <v>17914.14635982501</v>
       </c>
       <c r="E6" t="n">
-        <v>-54613.74131533003</v>
+        <v>-54711.2004413016</v>
       </c>
       <c r="F6" t="n">
-        <v>470546.2951615662</v>
+        <v>470448.8360355943</v>
       </c>
       <c r="G6" t="n">
-        <v>470546.2951615667</v>
+        <v>470448.8360355943</v>
       </c>
       <c r="H6" t="n">
-        <v>459924.0851348598</v>
+        <v>459846.3673558973</v>
       </c>
       <c r="I6" t="n">
-        <v>470964.7364605714</v>
+        <v>470887.0186816087</v>
       </c>
       <c r="J6" t="n">
-        <v>398710.041589432</v>
+        <v>398632.3238104692</v>
       </c>
       <c r="K6" t="n">
-        <v>452824.655071736</v>
+        <v>452746.9372927732</v>
       </c>
       <c r="L6" t="n">
-        <v>346222.5097707275</v>
+        <v>346222.5097707277</v>
       </c>
       <c r="M6" t="n">
         <v>374550.6002179988</v>
       </c>
       <c r="N6" t="n">
-        <v>454766.3408813396</v>
+        <v>454766.3408813401</v>
       </c>
       <c r="O6" t="n">
-        <v>454766.34088134</v>
+        <v>454766.3408813394</v>
       </c>
       <c r="P6" t="n">
-        <v>454766.3408813392</v>
+        <v>454766.3408813397</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="I2" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="J2" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="K2" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>95.69509577187257</v>
+        <v>95.6950957718729</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>346.639562833697</v>
+        <v>346.6395628336973</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513754</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.33107597250134</v>
+        <v>54.33107597250143</v>
       </c>
       <c r="M2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713924</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>60.67383505274728</v>
+        <v>60.67383505274761</v>
       </c>
       <c r="D3" t="n">
-        <v>282.0485684452141</v>
+        <v>282.0485684452138</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>70.48304913134155</v>
+        <v>70.48304913134187</v>
       </c>
       <c r="D4" t="n">
-        <v>327.6477099208586</v>
+        <v>327.6477099208583</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>70.48304913134132</v>
+        <v>70.48304913134164</v>
       </c>
       <c r="L4" t="n">
-        <v>327.6477099208587</v>
+        <v>327.6477099208583</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968194</v>
+        <v>277.5841853968197</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>70.48304913134155</v>
+        <v>70.48304913134187</v>
       </c>
       <c r="L4" t="n">
-        <v>327.6477099208586</v>
+        <v>327.6477099208583</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>133.4823786206792</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>330.1704911852553</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194542</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>129.1485236562876</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27512,16 +27512,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4476675709589</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>123.8411432570844</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27555,7 +27555,7 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
@@ -27588,7 +27588,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>8.043478786985645</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>203.3332656502552</v>
       </c>
       <c r="F5" t="n">
-        <v>60.23648290801447</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>68.27847077883757</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>262.6423985614061</v>
+        <v>335.5349532732598</v>
       </c>
       <c r="I5" t="n">
         <v>195.6445923654004</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.7034614194215</v>
+        <v>125.7034614194214</v>
       </c>
       <c r="S5" t="n">
-        <v>200.2536294057366</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.4118082304977</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>2.601405883715699</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.1376824289089</v>
@@ -27713,7 +27713,7 @@
         <v>110.2475140394242</v>
       </c>
       <c r="I6" t="n">
-        <v>82.30977906076225</v>
+        <v>82.30977906076222</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.37802494748625</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8598811925748</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3350702701579</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9278403221392</v>
+        <v>25.5305568011681</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>107.3128897482969</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,10 +27795,10 @@
         <v>150.2609769467115</v>
       </c>
       <c r="J7" t="n">
-        <v>81.15883979178994</v>
+        <v>81.1588397917899</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220584875644636</v>
+        <v>2.220584875644569</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>71.71208379014158</v>
       </c>
       <c r="R7" t="n">
         <v>169.5342447593386</v>
@@ -27825,10 +27825,10 @@
         <v>221.0092619944365</v>
       </c>
       <c r="T7" t="n">
-        <v>192.9343130621847</v>
+        <v>227.2082665592195</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3096167241199</v>
+        <v>33.88961679037382</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>262.5069376534894</v>
+        <v>171.8557591949429</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>50.9968953246362</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="C22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="D22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="E22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="F22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="G22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="H22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="I22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="J22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="K22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="L22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="M22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="N22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="O22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="P22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="R22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="S22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="T22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="U22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="V22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="W22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="X22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="C25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="D25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="E25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="F25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="G25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="H25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="I25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="J25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="K25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="L25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="M25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="N25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="O25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="P25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="R25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="S25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="T25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="U25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="V25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="W25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="X25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="C28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="D28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="E28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="F28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="G28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="H28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="I28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="J28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="K28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="L28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="M28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="N28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="O28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="P28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="R28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="S28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="T28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="U28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="V28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="W28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="X28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.80081415713926</v>
+        <v>13.80081415713925</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="C31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="D31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="E31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="F31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="G31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="H31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="I31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="J31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="K31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="L31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="M31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="N31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="O31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="P31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="R31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="S31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="T31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="U31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="W31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="X31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.8008141571393</v>
+        <v>13.80081415713925</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964045</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X35" t="n">
-        <v>68.1318901296429</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964244</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964099</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964114</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964325</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3847039026004925</v>
+        <v>0.3847039026004938</v>
       </c>
       <c r="H5" t="n">
-        <v>3.939848842507295</v>
+        <v>3.939848842507308</v>
       </c>
       <c r="I5" t="n">
-        <v>14.8312972050055</v>
+        <v>14.83129720500555</v>
       </c>
       <c r="J5" t="n">
-        <v>32.65126285333858</v>
+        <v>32.65126285333869</v>
       </c>
       <c r="K5" t="n">
-        <v>48.93577905041743</v>
+        <v>48.9357790504176</v>
       </c>
       <c r="L5" t="n">
-        <v>60.70916110962727</v>
+        <v>60.70916110962747</v>
       </c>
       <c r="M5" t="n">
-        <v>67.55063913749878</v>
+        <v>67.550639137499</v>
       </c>
       <c r="N5" t="n">
-        <v>68.64367910076243</v>
+        <v>68.64367910076267</v>
       </c>
       <c r="O5" t="n">
-        <v>64.81827966927878</v>
+        <v>64.81827966927899</v>
       </c>
       <c r="P5" t="n">
-        <v>55.32090207382911</v>
+        <v>55.32090207382929</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.54369356194896</v>
+        <v>41.5436935619491</v>
       </c>
       <c r="R5" t="n">
-        <v>24.16565652172821</v>
+        <v>24.16565652172829</v>
       </c>
       <c r="S5" t="n">
-        <v>8.766440180508731</v>
+        <v>8.766440180508761</v>
       </c>
       <c r="T5" t="n">
-        <v>1.684041333633657</v>
+        <v>1.684041333633662</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03077631220803939</v>
+        <v>0.0307763122080395</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2058347343017637</v>
+        <v>0.2058347343017644</v>
       </c>
       <c r="H6" t="n">
-        <v>1.987930197072297</v>
+        <v>1.987930197072303</v>
       </c>
       <c r="I6" t="n">
-        <v>7.086853790652828</v>
+        <v>7.086853790652853</v>
       </c>
       <c r="J6" t="n">
-        <v>19.44686847190479</v>
+        <v>19.44686847190485</v>
       </c>
       <c r="K6" t="n">
-        <v>33.23779567012295</v>
+        <v>33.23779567012306</v>
       </c>
       <c r="L6" t="n">
-        <v>44.69231807723163</v>
+        <v>44.69231807723177</v>
       </c>
       <c r="M6" t="n">
-        <v>52.15382719567054</v>
+        <v>52.15382719567072</v>
       </c>
       <c r="N6" t="n">
-        <v>53.5341838129837</v>
+        <v>53.53418381298388</v>
       </c>
       <c r="O6" t="n">
-        <v>48.97331943713935</v>
+        <v>48.97331943713952</v>
       </c>
       <c r="P6" t="n">
-        <v>39.3054064124131</v>
+        <v>39.30540641241323</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.27462327683566</v>
+        <v>26.27462327683575</v>
       </c>
       <c r="R6" t="n">
-        <v>12.77980920515687</v>
+        <v>12.77980920515692</v>
       </c>
       <c r="S6" t="n">
-        <v>3.82328991126302</v>
+        <v>3.823289911263033</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8296584246636874</v>
+        <v>0.8296584246636902</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01354175883564235</v>
+        <v>0.0135417588356424</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1725649268017374</v>
+        <v>0.172564926801738</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53425907647363</v>
+        <v>1.534259076473635</v>
       </c>
       <c r="I7" t="n">
-        <v>5.189497980546796</v>
+        <v>5.189497980546814</v>
       </c>
       <c r="J7" t="n">
-        <v>12.20034032488283</v>
+        <v>12.20034032488288</v>
       </c>
       <c r="K7" t="n">
-        <v>20.04890695023822</v>
+        <v>20.04890695023828</v>
       </c>
       <c r="L7" t="n">
-        <v>25.65569829923286</v>
+        <v>25.65569829923294</v>
       </c>
       <c r="M7" t="n">
-        <v>27.05033666220325</v>
+        <v>27.05033666220335</v>
       </c>
       <c r="N7" t="n">
-        <v>26.40714011685134</v>
+        <v>26.40714011685143</v>
       </c>
       <c r="O7" t="n">
-        <v>24.39126801739468</v>
+        <v>24.39126801739476</v>
       </c>
       <c r="P7" t="n">
-        <v>20.87094351063921</v>
+        <v>20.87094351063929</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.44995946155276</v>
+        <v>14.44995946155281</v>
       </c>
       <c r="R7" t="n">
-        <v>7.759146617830845</v>
+        <v>7.759146617830872</v>
       </c>
       <c r="S7" t="n">
-        <v>3.007336042535732</v>
+        <v>3.007336042535742</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7373228690619688</v>
+        <v>0.7373228690619713</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009412632371003869</v>
+        <v>0.009412632371003902</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34778,25 +34778,25 @@
         <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>16.95427887837176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>263.1686671037983</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.70197349872606</v>
+        <v>20.70197349872617</v>
       </c>
       <c r="K5" t="n">
-        <v>152.9913405766016</v>
+        <v>152.9913405766018</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6039606900905</v>
+        <v>242.6039606900907</v>
       </c>
       <c r="M5" t="n">
-        <v>286.7179394030586</v>
+        <v>286.7179394030588</v>
       </c>
       <c r="N5" t="n">
-        <v>276.5775399161557</v>
+        <v>276.5775399161559</v>
       </c>
       <c r="O5" t="n">
-        <v>215.5202495103374</v>
+        <v>215.5202495103376</v>
       </c>
       <c r="P5" t="n">
-        <v>145.8866144900422</v>
+        <v>145.8866144900424</v>
       </c>
       <c r="Q5" t="n">
-        <v>31.55299434740415</v>
+        <v>31.55299434740429</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>18.700277145647</v>
       </c>
       <c r="K6" t="n">
-        <v>159.8615937083426</v>
+        <v>159.8615937083427</v>
       </c>
       <c r="L6" t="n">
-        <v>276.9782836008166</v>
+        <v>276.9782836008168</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>46.33973323646897</v>
       </c>
       <c r="N6" t="n">
-        <v>315.3094362891495</v>
+        <v>346.6395628336973</v>
       </c>
       <c r="O6" t="n">
-        <v>300.2393942694245</v>
+        <v>300.2393942694246</v>
       </c>
       <c r="P6" t="n">
-        <v>223.79376763802</v>
+        <v>223.7937676380201</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.37013692666324</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>53.24572355954899</v>
+        <v>53.24572355954908</v>
       </c>
       <c r="M7" t="n">
-        <v>66.63421362404384</v>
+        <v>66.63421362404394</v>
       </c>
       <c r="N7" t="n">
-        <v>70.53931249607993</v>
+        <v>70.53931249608003</v>
       </c>
       <c r="O7" t="n">
-        <v>48.97639593143435</v>
+        <v>48.97639593143443</v>
       </c>
       <c r="P7" t="n">
-        <v>18.1495027755327</v>
+        <v>18.14950277553277</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>515.2286476848074</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35738,16 +35738,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>383.7554503095348</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.30858432270479</v>
+        <v>26.30858432270478</v>
       </c>
       <c r="K22" t="n">
         <v>165.5032426870498</v>
@@ -36297,7 +36297,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.02651412901402</v>
+        <v>53.02651412901401</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>315.5250401398259</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>26.30858432270479</v>
+        <v>26.30858432270478</v>
       </c>
       <c r="K25" t="n">
         <v>165.5032426870498</v>
@@ -36534,7 +36534,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.02651412901402</v>
+        <v>53.02651412901401</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>383.7554503095348</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.30858432270479</v>
+        <v>26.30858432270478</v>
       </c>
       <c r="K28" t="n">
         <v>165.5032426870498</v>
@@ -36771,7 +36771,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.02651412901402</v>
+        <v>53.02651412901401</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757303</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.30858432270483</v>
+        <v>26.30858432270478</v>
       </c>
       <c r="K31" t="n">
-        <v>165.5032426870499</v>
+        <v>165.5032426870498</v>
       </c>
       <c r="L31" t="n">
-        <v>264.0150010370679</v>
+        <v>264.0150010370678</v>
       </c>
       <c r="M31" t="n">
         <v>288.1106553361118</v>
       </c>
       <c r="N31" t="n">
-        <v>287.077691962743</v>
+        <v>287.0776919627429</v>
       </c>
       <c r="O31" t="n">
-        <v>250.0381656777422</v>
+        <v>250.0381656777421</v>
       </c>
       <c r="P31" t="n">
-        <v>192.1844147689401</v>
+        <v>192.18441476894</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.02651412901406</v>
+        <v>53.02651412901401</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973754</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K35" t="n">
-        <v>204.5443435591683</v>
+        <v>473.2048248553023</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
-        <v>503.9102907408064</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>115.5098277244907</v>
       </c>
       <c r="K38" t="n">
-        <v>317.0987353763102</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37552,19 +37552,19 @@
         <v>355.8161167292792</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>408.1301468599574</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>465.8113121037391</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>472.057971798424</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,25 +38017,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>525.0252772380018</v>
+        <v>358.8867910348454</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750482</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38114,7 +38114,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
